--- a/exceldata/excel/all/Z-主角形象表.xlsx
+++ b/exceldata/excel/all/Z-主角形象表.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\underworld\trunk\sharedata\exceldata\excel\all\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="27900" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="男主角形象表" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>填写备注</t>
   </si>
@@ -33,9 +28,27 @@
     <t>立绘名字</t>
   </si>
   <si>
+    <t>开放</t>
+  </si>
+  <si>
     <t>性别</t>
   </si>
   <si>
+    <t>肤色</t>
+  </si>
+  <si>
+    <t>模型</t>
+  </si>
+  <si>
+    <t>未解锁图标</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>RoleLookData</t>
+  </si>
+  <si>
     <t>role_look_id</t>
   </si>
   <si>
@@ -45,150 +58,95 @@
     <t>res_name</t>
   </si>
   <si>
+    <t>unlocked</t>
+  </si>
+  <si>
     <t>sex</t>
   </si>
   <si>
+    <t>skin_id</t>
+  </si>
+  <si>
+    <t>unit_id</t>
+  </si>
+  <si>
+    <t>unlock_icon</t>
+  </si>
+  <si>
+    <t>head_icon_id</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>此行是逻辑规则</t>
   </si>
   <si>
     <t>$key</t>
   </si>
   <si>
+    <t>ref(SkinData)</t>
+  </si>
+  <si>
+    <t>ref(UnitData)</t>
+  </si>
+  <si>
+    <t>ref(IconData)</t>
+  </si>
+  <si>
     <t>UISprite/Icon</t>
   </si>
   <si>
     <t>Head White</t>
   </si>
   <si>
-    <t>模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref(UnitData)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>白种</t>
   </si>
   <si>
     <t>男主角</t>
   </si>
   <si>
-    <t>开放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlocked</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleLookData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>男主角2</t>
+  </si>
+  <si>
+    <t>男主角4</t>
+  </si>
+  <si>
+    <t>黑种</t>
+  </si>
+  <si>
+    <t>男主角3</t>
   </si>
   <si>
     <t>女主角</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>女主角2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未解锁图标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref(IconData)</t>
-  </si>
-  <si>
-    <t>女主角</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlock_icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_icon_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主角</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主角2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肤色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白种</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑种</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref(SkinData)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主角3</t>
-  </si>
-  <si>
-    <t>男主角4</t>
+  </si>
+  <si>
+    <t>女主角4</t>
   </si>
   <si>
     <t>女主角3</t>
-  </si>
-  <si>
-    <t>女主角4</t>
-  </si>
-  <si>
-    <t>男主角未解锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女主角未解锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,39 +156,167 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,18 +325,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -275,30 +547,272 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyFill="0">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -308,49 +822,90 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="1表头" xfId="1"/>
-    <cellStyle name="2填表文本" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="2填表文本" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="16" builtinId="44"/>
+    <cellStyle name="计算" xfId="17" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29"/>
+    <cellStyle name="适中" xfId="19" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="20" builtinId="46"/>
+    <cellStyle name="好" xfId="21" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="22" builtinId="30"/>
+    <cellStyle name="汇总" xfId="23" builtinId="25"/>
+    <cellStyle name="差" xfId="24" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="25" builtinId="23"/>
+    <cellStyle name="输出" xfId="26" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="27" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="29" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="30" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="31" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="33" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
+    <cellStyle name="标题" xfId="35" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="38" builtinId="40"/>
+    <cellStyle name="注释" xfId="39" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="42" builtinId="51"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="44" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -608,19 +1163,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="26.75" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
@@ -634,7 +1189,7 @@
     <col min="10" max="10" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,122 +1203,122 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="5" ht="13.2" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="13.2" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="b">
         <v>1</v>
@@ -772,19 +1327,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>2</v>
@@ -798,19 +1353,19 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>3</v>
@@ -818,25 +1373,25 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3"/>
       <c r="B10" s="2">
         <v>4</v>
@@ -850,19 +1405,19 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>5</v>
@@ -876,27 +1431,27 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="2">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>1</v>
@@ -905,19 +1460,19 @@
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="2">
         <v>7</v>
       </c>
@@ -930,44 +1485,44 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="2">
         <v>8</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="2">
         <v>9</v>
       </c>
@@ -980,19 +1535,19 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="2">
         <v>10</v>
       </c>
@@ -1003,117 +1558,117 @@
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D21" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="4:13">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="4:13">
+      <c r="D21" s="5"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="4:13">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="4:13">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="4:13">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="4:13">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="4:13">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/exceldata/excel/all/Z-主角形象表.xlsx
+++ b/exceldata/excel/all/Z-主角形象表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12240"/>
+    <workbookView windowWidth="27900" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="男主角形象表" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>填写备注</t>
   </si>
@@ -124,6 +124,12 @@
     <t>男主角3</t>
   </si>
   <si>
+    <t>战斧叛徒</t>
+  </si>
+  <si>
+    <t>弗兰克</t>
+  </si>
+  <si>
     <t>女主角</t>
   </si>
   <si>
@@ -134,6 +140,12 @@
   </si>
   <si>
     <t>女主角3</t>
+  </si>
+  <si>
+    <t>莉莲</t>
+  </si>
+  <si>
+    <t>凯瑟琳_主角</t>
   </si>
 </sst>
 </file>
@@ -142,18 +154,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,38 +173,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,14 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -228,95 +308,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,12 +342,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -355,19 +378,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,25 +468,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,25 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,90 +516,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -561,12 +560,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -590,41 +591,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,157 +624,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" applyFill="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -823,11 +833,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -836,13 +849,10 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,7 +1182,7 @@
   <dimension ref="A3:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1214,7 +1224,7 @@
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -1358,7 +1368,7 @@
       <c r="H8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="7" t="s">
@@ -1384,7 +1394,7 @@
       <c r="H9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="7" t="s">
@@ -1417,7 +1427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" ht="13.2" spans="1:10">
       <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>5</v>
@@ -1433,14 +1443,14 @@
       <c r="G11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>33</v>
+      <c r="H11" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>33</v>
+      <c r="J11" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -1463,13 +1473,13 @@
         <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -1488,13 +1498,13 @@
         <v>30</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -1513,13 +1523,13 @@
         <v>30</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1538,16 +1548,16 @@
         <v>34</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" ht="13.2" spans="2:10">
       <c r="B16" s="2">
         <v>10</v>
       </c>
@@ -1560,14 +1570,14 @@
       <c r="G16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>38</v>
+      <c r="J16" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="4:13">
@@ -1599,9 +1609,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
